--- a/3d-single-material/bike.xlsx
+++ b/3d-single-material/bike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BBC2FE-466B-4CD1-8EC4-B251348C6087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF41E45-4A57-474F-B04B-A99154614CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
